--- a/data/labeling/figure_data.xlsx
+++ b/data/labeling/figure_data.xlsx
@@ -10,6 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volatility_Data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimeEvents_Data" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TripleBarrier_Data" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Events2_Data" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Events2_Data_New" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,9 +20,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -11254,7 +11255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11280,7 +11281,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
       <c r="B2" s="5" t="n">
         <v>43886</v>
       </c>
@@ -11289,21 +11289,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
       <c r="B3" s="5" t="n">
         <v>43885</v>
       </c>
-      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
       <c r="B4" s="5" t="n">
         <v>43886</v>
       </c>
-      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
       <c r="B5" s="5" t="n">
         <v>43888</v>
       </c>
@@ -11312,7 +11307,6 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
       <c r="B6" s="5" t="n">
         <v>43899</v>
       </c>
@@ -11321,7 +11315,6 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
       <c r="B7" s="5" t="n">
         <v>43896</v>
       </c>
@@ -11330,7 +11323,6 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
       <c r="B8" s="5" t="n">
         <v>43899</v>
       </c>
@@ -11339,7 +11331,6 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
       <c r="B9" s="5" t="n">
         <v>43902</v>
       </c>
@@ -11348,7 +11339,6 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
       <c r="B10" s="5" t="n">
         <v>43902</v>
       </c>
@@ -11357,7 +11347,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
       <c r="B11" s="5" t="n">
         <v>43910</v>
       </c>
@@ -11366,7 +11355,6 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
       <c r="B12" s="5" t="n">
         <v>43906</v>
       </c>
@@ -11375,7 +11363,6 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
       <c r="B13" s="5" t="n">
         <v>43910</v>
       </c>
@@ -11384,7 +11371,6 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
       <c r="B14" s="5" t="n">
         <v>43908</v>
       </c>
@@ -11393,7 +11379,6 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
       <c r="B15" s="5" t="n">
         <v>43910</v>
       </c>
@@ -11402,21 +11387,16 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" s="5" t="n">
         <v>43914</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" s="5" t="n">
         <v>43916</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
       <c r="B18" s="5" t="n">
         <v>43922</v>
       </c>
@@ -11425,28 +11405,21 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" s="5" t="n">
         <v>43927</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" s="5" t="n">
         <v>43930</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" s="5" t="n">
         <v>43984</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
       <c r="B22" s="5" t="n">
         <v>43964</v>
       </c>
@@ -11455,28 +11428,21 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" s="5" t="n">
         <v>43978</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" s="5" t="n">
         <v>43969</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" s="5" t="n">
         <v>43978</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
       <c r="B26" s="5" t="n">
         <v>44006</v>
       </c>
@@ -11485,7 +11451,6 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
       <c r="B27" s="5" t="n">
         <v>43993</v>
       </c>
@@ -11494,28 +11459,21 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" s="5" t="n">
         <v>43998</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" s="5" t="n">
         <v>44026</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" s="5" t="n">
         <v>44034</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
       <c r="B31" s="5" t="n">
         <v>44063</v>
       </c>
@@ -11524,7 +11482,6 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
       <c r="B32" s="5" t="n">
         <v>44097</v>
       </c>
@@ -11533,7 +11490,6 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
       <c r="B33" s="5" t="n">
         <v>44132</v>
       </c>
@@ -11542,30 +11498,455 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" s="5" t="n">
         <v>44137</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" s="5" t="n">
         <v>44144</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" s="5" t="n">
         <v>44159</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Base Width</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
+        <v>43902</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>43903</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.04498361887181634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
+        <v>43903</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>43906</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.04351689584551795</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>43906</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>43907</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.04767221007124572</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>43907</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>43908</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.04663785886622341</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>43908</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>43910</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.04559643883723715</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>43913</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>43914</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.04262986133570266</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
+        <v>43914</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>43916</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0464041071893747</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
+        <v>43916</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05991126097729475</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>43922</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>43927</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05625799695397982</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>43927</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>43930</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05427249847949958</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
+        <v>43930</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>43951</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.05509304756572213</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="n">
+        <v>43948</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>43964</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.04394728670987871</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>43973</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.04135116727042666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Base Width</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
+        <v>43902</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>43903</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.04498361887181634</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04498361887181634</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
+        <v>43903</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>43906</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.04351689584551795</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04351689584551795</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>43906</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>43907</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.04767221007124572</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04767221007124572</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>43907</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>43908</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.04663785886622341</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04663785886622341</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>43908</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>43910</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.04559643883723715</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04559643883723715</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>43913</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>43914</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.04262986133570266</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04262986133570266</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
+        <v>43914</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>43916</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0464041071893747</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0464041071893747</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
+        <v>43916</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05991126097729475</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.05991126097729475</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>43922</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>43927</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05625799695397982</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.05625799695397982</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>43927</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>43930</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05427249847949958</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.05427249847949958</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
+        <v>43930</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>43951</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.05509304756572213</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.05509304756572213</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="n">
+        <v>43948</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>43964</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.04394728670987871</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.04394728670987871</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>43973</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.04135116727042666</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.04135116727042666</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>43973</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
